--- a/Solar charger/TestReport/10_4舊版測試.xlsx
+++ b/Solar charger/TestReport/10_4舊版測試.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Solar-board\Solar charger\TestReport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{BF6E0CF0-67EB-4EC5-8A07-3FC95F4237C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{516B42A9-B6F6-4282-99C0-35941F6E83E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="10_4舊版測試" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -34,22 +45,26 @@
     <t>Solar Power_mW</t>
   </si>
   <si>
-    <t>MPPT Voltage_V</t>
+    <t>USB Voltage_V</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>MPPT Current_mA</t>
+    <t>USB Current_mA</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>MPPT Power_mW</t>
+    <t>USB Power_mW</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>MPPT Efficiency_%</t>
+    <t xml:space="preserve"> Efficiency_%</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19">
     <font>
       <sz val="12"/>
@@ -687,6 +702,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF7171"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -733,19 +753,13 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -1966,13 +1980,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MPPT Power_mW</c:v>
+                  <c:v>USB Power_mW</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
@@ -1980,13 +1994,7 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -3217,19 +3225,13 @@
                 <c:idx val="0"/>
                 <c:order val="0"/>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
@@ -4504,26 +4506,20 @@
                 <c:idx val="1"/>
                 <c:order val="1"/>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent2"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$A$17:$A$213</c15:sqref>
@@ -5129,7 +5125,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$B$17:$B$228</c15:sqref>
@@ -5779,7 +5775,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-8957-405C-BC10-37C4454A93AA}"/>
                   </c:ext>
@@ -5791,26 +5787,20 @@
                 <c:idx val="2"/>
                 <c:order val="2"/>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent3"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$A$17:$A$213</c15:sqref>
@@ -6416,7 +6406,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$C$17:$C$228</c15:sqref>
@@ -7066,7 +7056,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-8957-405C-BC10-37C4454A93AA}"/>
                   </c:ext>
@@ -7078,26 +7068,20 @@
                 <c:idx val="4"/>
                 <c:order val="4"/>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent5"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$A$17:$A$213</c15:sqref>
@@ -7703,7 +7687,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$E$17:$E$228</c15:sqref>
@@ -7717,7 +7701,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-8957-405C-BC10-37C4454A93AA}"/>
                   </c:ext>
@@ -7729,26 +7713,20 @@
                 <c:idx val="5"/>
                 <c:order val="5"/>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent6"/>
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$A$17:$A$213</c15:sqref>
@@ -8354,7 +8332,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$F$17:$F$228</c15:sqref>
@@ -9004,7 +8982,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-8957-405C-BC10-37C4454A93AA}"/>
                   </c:ext>
@@ -9016,7 +8994,7 @@
                 <c:idx val="6"/>
                 <c:order val="6"/>
                 <c:spPr>
-                  <a:ln w="34925" cap="rnd">
+                  <a:ln w="28575" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
                         <a:lumMod val="60000"/>
@@ -9024,20 +9002,14 @@
                     </a:solidFill>
                     <a:round/>
                   </a:ln>
-                  <a:effectLst>
-                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="000000">
-                        <a:alpha val="63000"/>
-                      </a:srgbClr>
-                    </a:outerShdw>
-                  </a:effectLst>
+                  <a:effectLst/>
                 </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$A$17:$A$213</c15:sqref>
@@ -9643,7 +9615,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>'10_4舊版測試'!$G$17:$G$228</c15:sqref>
@@ -10293,7 +10265,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000D-8957-405C-BC10-37C4454A93AA}"/>
                   </c:ext>
@@ -10315,13 +10287,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MPPT Efficiency_%</c:v>
+                  <c:v> Efficiency_%</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="34925" cap="rnd">
+            <a:ln w="28575" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
@@ -10329,13 +10301,7 @@
               </a:solidFill>
               <a:round/>
             </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
+            <a:effectLst/>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
@@ -11573,11 +11539,11 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -11618,6 +11584,19 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -11707,6 +11686,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="632866112"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -11735,7 +11715,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -11753,6 +11733,5241 @@
     </c:legend>
     <c:plotVisOnly val="0"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_4舊版測試'!$B$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar Voltage_V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$A$17:$A$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10226</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15306</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16830</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17846</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18862</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20386</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22926</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23434</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23942</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25466</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25974</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26990</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29530</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30038</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31054</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32578</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35118</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35626</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36134</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36642</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37658</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38166</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38674</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39690</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40198</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40706</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41722</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42230</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45786</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46802</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47310</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47818</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48326</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48834</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49342</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50358</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50866</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51374</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51882</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53406</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>54422</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54930</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55438</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55946</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56454</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56962</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57470</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57978</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58486</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>60010</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60518</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61534</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>62042</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62550</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>63058</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63566</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>64074</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64582</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>65090</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65598</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>66106</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>66614</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>67122</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67630</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>68138</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68646</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>69154</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69662</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>70170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>70678</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>71186</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>71694</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>72202</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72710</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>73218</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73726</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>74234</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74742</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>75250</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75758</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76266</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76774</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>77282</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>77790</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>78298</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>78806</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>79314</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>79822</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>80330</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>80838</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>81346</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81854</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>82362</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>82870</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>83378</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83886</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>84394</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84902</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>85410</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85918</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86426</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86934</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>87442</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87950</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>88458</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>88966</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89474</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89982</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>90490</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>91506</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>92014</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>92522</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>93030</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>93538</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>94046</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>94554</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>95062</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>95570</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>96078</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>96586</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>97094</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>97602</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>98110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>98618</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>99126</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>99634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$B$17:$B$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>3.87</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.61</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.97</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.79</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.59</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.29</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14.17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15.12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>15.31</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15.78</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>15.84</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.83</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>15.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>15.77</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>15.75</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>15.72</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>15.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>15.71</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.7</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.67</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15.64</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15.73</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>15.72</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>14.83</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14.05</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>14.08</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.07</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.04</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>14.01</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>13.98</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>13.94</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>13.92</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>13.91</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.88</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>13.9</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>13.86</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>13.85</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>14.76</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>14.03</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>13.79</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>13.77</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>13.73</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>13.72</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>14.58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>14.39</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>13.67</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.65</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>13.64</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>13.6</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.59</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>13.56</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>13.57</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>13.58</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>13.54</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>13.52</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>13.49</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>13.46</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>13.46</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>13.44</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>13.4</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>13.35</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>13.39</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.38</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>13.37</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>13.36</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>13.36</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>13.34</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>13.32</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>13.28</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>13.27</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>13.26</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>13.23</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>13.22</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>13.16</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>13.19</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>13.17</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>13.18</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>13.15</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>13.12</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>13.13</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>13.14</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>13.11</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>13.1</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>13.09</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>13.08</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>13.04</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>13.03</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>13.02</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>13.01</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>12.98</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>12.96</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>12.93</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>12.95</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>12.94</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>12.93</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>12.91</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>12.89</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>12.88</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>12.92</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>12.9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>12.84</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>12.86</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>12.81</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>12.8</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>12.81</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>12.82</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>12.83</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>14.62</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>14.61</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>14.61</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>14.6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>14.12</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>10.48</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>8.11</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>8.01</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>8.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-ADEF-4B96-8D5A-52E6E9951DE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_4舊版測試'!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USB Voltage_V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$A$17:$A$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10226</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15306</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16830</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17846</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18862</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20386</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22926</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23434</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23942</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25466</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25974</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26990</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29530</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30038</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31054</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32578</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35118</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35626</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36134</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36642</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37658</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38166</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38674</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39690</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40198</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40706</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41722</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42230</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45786</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46802</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47310</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47818</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48326</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48834</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49342</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50358</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50866</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51374</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51882</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53406</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>54422</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54930</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55438</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55946</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56454</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56962</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57470</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57978</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58486</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>60010</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60518</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61534</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>62042</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62550</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>63058</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63566</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>64074</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64582</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>65090</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65598</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>66106</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>66614</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>67122</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67630</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>68138</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68646</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>69154</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69662</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>70170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>70678</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>71186</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>71694</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>72202</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72710</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>73218</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73726</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>74234</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74742</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>75250</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75758</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76266</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76774</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>77282</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>77790</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>78298</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>78806</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>79314</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>79822</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>80330</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>80838</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>81346</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81854</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>82362</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>82870</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>83378</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83886</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>84394</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84902</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>85410</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85918</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86426</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86934</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>87442</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87950</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>88458</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>88966</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89474</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89982</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>90490</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>91506</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>92014</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>92522</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>93030</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>93538</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>94046</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>94554</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>95062</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>95570</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>96078</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>96586</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>97094</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>97602</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>98110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>98618</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>99126</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>99634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$F$17:$F$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.25</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.21</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>5.16</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>5.15</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>5.27</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>5.26</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>5.26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-ADEF-4B96-8D5A-52E6E9951DE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="441033680"/>
+        <c:axId val="441025776"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_4舊版測試'!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Solar Current_mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="dash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$A$17:$A$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10226</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15306</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16830</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17846</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18862</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20386</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22926</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23434</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23942</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25466</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25974</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26990</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29530</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30038</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31054</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32578</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35118</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35626</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36134</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36642</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37658</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38166</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38674</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39690</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40198</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40706</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41722</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42230</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45786</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46802</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47310</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47818</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48326</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48834</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49342</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50358</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50866</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51374</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51882</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53406</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>54422</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54930</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55438</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55946</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56454</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56962</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57470</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57978</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58486</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>60010</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60518</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61534</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>62042</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62550</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>63058</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63566</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>64074</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64582</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>65090</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65598</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>66106</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>66614</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>67122</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67630</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>68138</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68646</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>69154</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69662</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>70170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>70678</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>71186</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>71694</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>72202</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72710</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>73218</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73726</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>74234</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74742</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>75250</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75758</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76266</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76774</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>77282</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>77790</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>78298</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>78806</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>79314</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>79822</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>80330</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>80838</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>81346</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81854</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>82362</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>82870</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>83378</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83886</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>84394</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84902</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>85410</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85918</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86426</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86934</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>87442</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87950</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>88458</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>88966</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89474</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89982</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>90490</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>91506</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>92014</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>92522</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>93030</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>93538</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>94046</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>94554</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>95062</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>95570</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>96078</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>96586</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>97094</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>97602</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>98110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>98618</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>99126</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>99634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$C$17:$C$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>29.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>28.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>33.6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>33.1</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>19.399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>19.3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>193.1</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>405.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>402.9</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>403.8</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>403.7</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>402.3</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>402.1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>403.1</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>403.9</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>405.3</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>406.4</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>406.6</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>405.2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>406.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>405.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>406.2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>407.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>409</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>408.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>408.7</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>408.9</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>409.4</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>409.4</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>409.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>409.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>408.8</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>195</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>363.6</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>411.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>412.9</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>414.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>413</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>197.6</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>198.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>416.9</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>415.8</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>415.2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>415.7</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>415.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>415.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>416.4</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>416.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>418.1</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>418.1</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>417.2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>417.4</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>417.9</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>419.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>419.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>419.2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>419.1</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>420.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>420.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>419.9</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>419.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>420.3</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>422.4</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>422.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>422.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>423.1</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>424.1</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>422.9</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>425.4</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>424.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>424.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>425.3</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>425.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>424.7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>424.9</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>426</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>424.9</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>425.3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>425.8</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>424.6</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>425.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>426.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>428.1</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>427.1</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>427.9</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>428.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>428.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>428.8</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>428.9</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>429.4</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>429.1</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>430.5</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>431.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>430.7</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>431.7</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>430.9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>431.9</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>430.9</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>432</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>432.6</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>433.8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>432.2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>433.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>432.8</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>433.9</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>433.8</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>433.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>432.6</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>433.8</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>433</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>434</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>434.2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>433.8</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>435.7</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>435.5</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>434.8</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>435.9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>436.1</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>436.7</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>436.7</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>437.2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>437.6</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>438</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>438.9</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>438.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>439.2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>439.7</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>439.3</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>439.3</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>439.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>439.8</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>440.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>440.2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>440.9</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>441.2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>439.6</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>439.8</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>440.5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>442.1</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>442</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>440.7</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>441.6</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>442.9</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>442.2</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>441.5</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>442.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>442.6</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>443.1</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>443.6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>443.3</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>443.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>443</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>443.2</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>442.2</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>19.100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>18.8</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>15.8</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>11.3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>11.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-ADEF-4B96-8D5A-52E6E9951DE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'10_4舊版測試'!$G$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USB Current_mA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF7171"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$A$17:$A$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1082</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2098</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2606</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3114</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3622</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4130</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4638</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5146</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5654</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6162</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6670</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7178</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7686</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8194</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8702</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9210</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9718</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10226</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10734</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11242</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>11750</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>12258</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>12766</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>13274</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>13782</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>14290</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>14798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>15306</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>15814</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16322</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>16830</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>17338</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17846</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18354</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>18862</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19370</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19878</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20386</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>20894</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>21402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>21910</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>22418</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>22926</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>23434</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>23942</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>24450</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24958</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>25466</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>25974</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>26482</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>26990</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>27498</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>28006</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>28514</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29022</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>29530</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30038</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30546</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31054</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31562</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32070</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32578</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33086</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>33594</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>34102</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>34610</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35118</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35626</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36134</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36642</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>37150</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>37658</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>38166</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>38674</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39182</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39690</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>40198</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>40706</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41214</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41722</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42230</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42738</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>43246</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>44262</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>44770</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>45278</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>45786</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>46294</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46802</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>47310</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>47818</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>48326</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>48834</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>49342</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>49850</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>50358</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>50866</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>51374</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>51882</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>52390</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>52898</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>53406</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>53914</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>54422</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>54930</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>55438</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>55946</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>56454</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>56962</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>57470</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>57978</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>58486</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>58994</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>59502</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>60010</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>60518</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>61026</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>61534</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>62042</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>62550</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>63058</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>63566</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>64074</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>64582</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>65090</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>65598</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>66106</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>66614</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>67122</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>67630</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>68138</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>68646</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>69154</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>69662</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>70170</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>70678</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>71186</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>71694</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>72202</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>72710</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>73218</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>73726</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>74234</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>74742</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>75250</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>75758</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>76266</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>76774</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>77282</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>77790</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>78298</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>78806</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>79314</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>79822</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>80330</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>80838</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>81346</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>81854</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>82362</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>82870</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>83378</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>83886</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>84394</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>84902</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>85410</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>85918</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>86426</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>86934</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>87442</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>87950</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>88458</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>88966</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>89474</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>89982</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>90490</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>90998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>91506</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>92014</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>92522</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>93030</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>93538</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>94046</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>94554</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>95062</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>95570</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>96078</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>96586</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>97094</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>97602</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>98110</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>98618</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>99126</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>99634</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'10_4舊版測試'!$G$17:$G$213</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="197"/>
+                <c:pt idx="0">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>24.1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>39.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>38.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.1</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>39.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>40.1</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>39.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>40.4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>40.200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>472.8</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>964.8</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>966.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>967.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>968.1</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>967.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>968.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>969.3</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>968.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>969.7</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>969.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>969.3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>968.8</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>969.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>969.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>969.6</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>970.3</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>969.9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>969.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>968.3</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>969.9</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>969.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>968.8</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>968.7</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>969.9</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>475.6</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>919.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>969.4</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>970.4</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>969.1</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>477.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>475</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>967.8</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>969</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>967.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>969.1</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>971.1</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>970.8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>969.2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>970.9</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>968.3</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>970.7</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>970.8</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>971.6</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>970.6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>971.2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>972.6</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>970.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>971.6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>971.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>972.1</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>971.1</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>971.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>971.8</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>972.7</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>971.2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>971.9</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>972.9</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>973.3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>973.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>971.7</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>973.3</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>972.7</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>973.4</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>973.4</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>972.8</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>973.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>973.2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>973.4</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>973.9</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>973.8</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>974.4</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>972.6</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>973.4</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>973.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>973.1</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>973.3</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>971.9</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>972.9</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>973.3</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>972.6</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>972.6</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>973</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>971.9</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>971.5</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>972.8</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>972.8</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>972.8</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>972.4</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>971.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>971.9</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>971.9</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>971.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>970.9</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>973.2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>971.5</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>971.2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>971.7</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>972.1</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>972.1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>972.6</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>972.2</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>972.2</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>972.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>971.5</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>971.7</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>971.6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>973.2</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>972</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>971.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>972.5</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-ADEF-4B96-8D5A-52E6E9951DE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="583458992"/>
+        <c:axId val="583454832"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="441033680"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441025776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="441025776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="441033680"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="583454832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="583458992"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="583458992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="583454832"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -11828,8 +17043,48 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="342">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="323">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11840,7 +17095,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -11853,11 +17108,11 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -11870,7 +17125,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -11930,20 +17185,540 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="narHorz">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:bgClr>
+      </a:pattFill>
+      <a:effectLst>
+        <a:innerShdw blurRad="114300">
+          <a:schemeClr val="phClr"/>
+        </a:innerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="15875" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="150" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="322">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11952,13 +17727,13 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="34925" cap="rnd">
+      <a:ln w="28575" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -11970,10 +17745,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="3"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -11982,17 +17757,16 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="3"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
@@ -12034,22 +17808,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12096,8 +17871,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -12187,20 +17968,20 @@
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -12214,7 +17995,7 @@
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
@@ -12255,7 +18036,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -12264,13 +18045,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -12291,19 +18073,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12324,8 +18107,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -12340,10 +18129,10 @@
       <xdr:rowOff>201929</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>303042</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>107585</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>311070</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>153629</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12365,6 +18154,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>370524</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>2663</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>197724</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>163912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B525138-AB58-47F3-8301-B3D4FFB02E90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -12669,11 +18494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A16:I228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="93" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="AA24" sqref="AA24"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -18219,6 +24044,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>